--- a/computer/intro_pm.xlsx
+++ b/computer/intro_pm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawasachito/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBFFC2B-7DAA-5346-89A9-F03B747F59DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{44ACCBD0-82B5-E740-A7B1-938BCE3B9AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="25000" windowHeight="14920" xr2:uid="{8D3F56AE-B580-F04B-A20B-473EC7263A9D}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="※dictionary " sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="580">
   <si>
     <t>関心事の持ち主</t>
     <rPh sb="0" eb="3">
@@ -988,13 +989,7 @@
   <si>
     <t>全体リスク</t>
     <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="29" eb="39">
-      <t>セイジケイズ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>ギジュテゥ</t>
+      <t>ゼンタイセイジケイズギジュテゥ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2268,10 +2263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レポート仕様テンプレート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>属性の優先順位</t>
     <rPh sb="0" eb="2">
       <t>ゾクセイ</t>
@@ -3197,10 +3188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>センシティブな業務</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>復旧時の業務再開手順</t>
     <rPh sb="0" eb="3">
       <t>フッキュウ</t>
@@ -3359,10 +3346,7 @@
   <si>
     <t>阻害要因への対策</t>
     <rPh sb="0" eb="4">
-      <t>ソガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>j</t>
+      <t>ソガイj</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3969,6 +3953,43 @@
     <rPh sb="22" eb="24">
       <t>イコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの意味</t>
+    <rPh sb="0" eb="4">
+      <t>データノイミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データディクショナリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なされる意思決定</t>
+    <rPh sb="4" eb="8">
+      <t>イシケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報源</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス制限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センシティブな業務の取扱い</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4045,7 +4066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4063,9 +4084,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4406,13 +4424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEA0E9-1A41-2D4C-AD91-8E3C8BC38BB8}">
-  <dimension ref="A2:N297"/>
+  <dimension ref="A2:N302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4434,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -4449,7 +4467,7 @@
         <v>316</v>
       </c>
       <c r="K2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4525,7 +4543,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4558,7 +4576,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4566,7 +4584,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4577,7 +4595,7 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J12" t="s">
         <v>315</v>
@@ -4605,7 +4623,7 @@
         <v>310</v>
       </c>
       <c r="G14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J14" t="s">
         <v>315</v>
@@ -4616,7 +4634,7 @@
         <v>311</v>
       </c>
       <c r="G15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J15" t="s">
         <v>315</v>
@@ -4627,7 +4645,7 @@
         <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J16" t="s">
         <v>315</v>
@@ -4794,32 +4812,32 @@
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="E30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="2:14">
       <c r="G31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -4833,7 +4851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="4:14">
+    <row r="33" spans="3:14">
       <c r="D33" t="s">
         <v>51</v>
       </c>
@@ -4850,7 +4868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="4:14">
+    <row r="34" spans="3:14">
       <c r="G34" t="s">
         <v>54</v>
       </c>
@@ -4861,7 +4879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="4:14">
+    <row r="35" spans="3:14">
       <c r="G35" t="s">
         <v>329</v>
       </c>
@@ -4872,7 +4890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="4:14">
+    <row r="36" spans="3:14">
       <c r="E36" t="s">
         <v>57</v>
       </c>
@@ -4886,7 +4904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="4:14">
+    <row r="37" spans="3:14">
       <c r="E37" t="s">
         <v>58</v>
       </c>
@@ -4897,7 +4915,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="4:14">
+    <row r="38" spans="3:14">
       <c r="D38" t="s">
         <v>55</v>
       </c>
@@ -4911,109 +4929,109 @@
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="4:14">
+    <row r="39" spans="3:14">
+      <c r="F39" t="s">
+        <v>345</v>
+      </c>
       <c r="G39" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="H39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="4:14">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14">
       <c r="F40" t="s">
-        <v>345</v>
-      </c>
-      <c r="G40" t="s">
-        <v>337</v>
-      </c>
-      <c r="H40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="4:14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="E41" t="s">
+        <v>320</v>
+      </c>
       <c r="F41" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="4:14">
-      <c r="E42" t="s">
-        <v>320</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14">
       <c r="F42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="4:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14">
       <c r="F43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G43" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="4:14">
-      <c r="F44" t="s">
-        <v>323</v>
-      </c>
-      <c r="G44" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="4:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="E44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14">
       <c r="E45" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="4:14">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
       <c r="E46" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="4:14">
-      <c r="D47" t="s">
-        <v>61</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14">
       <c r="E47" t="s">
         <v>358</v>
       </c>
       <c r="G47" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="48" spans="4:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
       <c r="E48" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G48" t="s">
-        <v>356</v>
+        <v>347</v>
+      </c>
+      <c r="H48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="C49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" t="s">
-        <v>349</v>
-      </c>
-      <c r="G49" t="s">
-        <v>347</v>
-      </c>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="H50" t="s">
-        <v>326</v>
+      <c r="E50" t="s">
+        <v>573</v>
+      </c>
+      <c r="G50" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5048,7 +5066,7 @@
         <v>335</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s">
         <v>348</v>
@@ -5056,967 +5074,967 @@
     </row>
     <row r="55" spans="1:12">
       <c r="F55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="F56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="F57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" t="s">
+      <c r="E58" t="s">
+        <v>318</v>
+      </c>
+      <c r="F58" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="F59" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="F60" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="F61" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="F62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" t="s">
         <v>66</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>69</v>
       </c>
-      <c r="E58" t="s">
-        <v>371</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="E63" t="s">
+        <v>370</v>
+      </c>
+      <c r="G63" t="s">
         <v>341</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="E59" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="E61" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="D62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="E63" t="s">
-        <v>476</v>
-      </c>
-    </row>
     <row r="64" spans="1:12">
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
       <c r="E64" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="3:12">
       <c r="D65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="3:12">
-      <c r="D66" t="s">
-        <v>74</v>
-      </c>
       <c r="E66" t="s">
-        <v>478</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="3:12">
       <c r="D67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="3:12">
-      <c r="D68" t="s">
-        <v>76</v>
-      </c>
       <c r="E68" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="69" spans="3:12">
       <c r="D69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="3:12">
       <c r="D70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="3:12">
       <c r="D71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>483</v>
-      </c>
-      <c r="F71" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="3:12">
-      <c r="C72" t="s">
-        <v>80</v>
-      </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" t="s">
-        <v>87</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="3:12">
-      <c r="G73" t="s">
-        <v>84</v>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="3:12">
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
       <c r="E74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>86</v>
-      </c>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-      <c r="L74" t="s">
-        <v>89</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12">
+      <c r="D75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="3:12">
       <c r="D76" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>481</v>
+      </c>
+      <c r="F76" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="3:12">
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="3:12">
-      <c r="D78" t="s">
-        <v>71</v>
+      <c r="G78" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="3:12">
-      <c r="D79" t="s">
-        <v>72</v>
-      </c>
       <c r="E79" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12">
-      <c r="D80" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L79" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="3:8">
       <c r="D81" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>442</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="3:8">
-      <c r="D82" t="s">
-        <v>75</v>
-      </c>
       <c r="E82" t="s">
-        <v>454</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="D83" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="3:8">
       <c r="D84" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E84" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="3:8">
-      <c r="E85" t="s">
-        <v>451</v>
+      <c r="D85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="3:8">
       <c r="D86" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="E86" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="3:8">
       <c r="D87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
+      <c r="D88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="D89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8">
+      <c r="E90" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8">
+      <c r="D91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="D92" t="s">
         <v>79</v>
       </c>
-      <c r="E87" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8">
-      <c r="C88" t="s">
+      <c r="E92" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" t="s">
         <v>81</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D93" t="s">
         <v>69</v>
       </c>
-      <c r="E88" t="s">
-        <v>364</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="E93" t="s">
+        <v>363</v>
+      </c>
+      <c r="G93" t="s">
         <v>53</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H93" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="3:8">
-      <c r="G89" t="s">
+    <row r="94" spans="3:8">
+      <c r="G94" t="s">
         <v>54</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H94" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="3:8">
-      <c r="G90" t="s">
-        <v>370</v>
-      </c>
-      <c r="H90" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8">
-      <c r="E91" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8">
-      <c r="E92" t="s">
-        <v>366</v>
-      </c>
-      <c r="G92" t="s">
-        <v>367</v>
-      </c>
-      <c r="H92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8">
-      <c r="H93" t="s">
+    <row r="95" spans="3:8">
+      <c r="G95" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="94" spans="3:8">
-      <c r="D94" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8">
-      <c r="E95" t="s">
-        <v>416</v>
+      <c r="H95" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="3:8">
       <c r="E96" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8">
-      <c r="D97" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8">
+      <c r="E97" t="s">
+        <v>365</v>
+      </c>
+      <c r="G97" t="s">
+        <v>366</v>
+      </c>
+      <c r="H97" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8">
+      <c r="H98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8">
+      <c r="D99" t="s">
+        <v>70</v>
+      </c>
+      <c r="E99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8">
+      <c r="E100" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8">
+      <c r="E101" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8">
+      <c r="D102" t="s">
         <v>71</v>
       </c>
-      <c r="E97" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8">
-      <c r="E98" t="s">
+      <c r="E102" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="99" spans="3:8">
-      <c r="D99" t="s">
+    <row r="103" spans="4:8">
+      <c r="E103" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8">
+      <c r="D104" t="s">
         <v>72</v>
       </c>
-      <c r="E99" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8">
-      <c r="D100" t="s">
+      <c r="E104" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8">
+      <c r="D105" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="3:8">
-      <c r="D101" t="s">
+    <row r="106" spans="4:8">
+      <c r="D106" t="s">
         <v>74</v>
       </c>
-      <c r="E101" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8">
-      <c r="D102" t="s">
+      <c r="E106" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="107" spans="4:8">
+      <c r="D107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="3:8">
-      <c r="D103" t="s">
+    <row r="108" spans="4:8">
+      <c r="D108" t="s">
         <v>76</v>
       </c>
-      <c r="E103" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8">
-      <c r="D104" t="s">
+      <c r="E108" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8">
+      <c r="D109" t="s">
         <v>77</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E109" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8">
+      <c r="E110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="105" spans="3:8">
-      <c r="E105" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8">
-      <c r="D106" t="s">
+    <row r="111" spans="4:8">
+      <c r="D111" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="3:8">
-      <c r="D107" t="s">
+    <row r="112" spans="4:8">
+      <c r="D112" t="s">
         <v>79</v>
       </c>
-      <c r="E107" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8">
-      <c r="C108" t="s">
-        <v>427</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E112" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12">
+      <c r="C113" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" t="s">
         <v>69</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E113" t="s">
+        <v>371</v>
+      </c>
+      <c r="G113" t="s">
+        <v>382</v>
+      </c>
+      <c r="H113" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12">
+      <c r="H114" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12">
+      <c r="E115" t="s">
+        <v>384</v>
+      </c>
+      <c r="G115" t="s">
+        <v>331</v>
+      </c>
+      <c r="H115" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12">
+      <c r="E116" t="s">
+        <v>385</v>
+      </c>
+      <c r="G116" t="s">
+        <v>333</v>
+      </c>
+      <c r="H116" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12">
+      <c r="E117" t="s">
         <v>372</v>
       </c>
-      <c r="G108" t="s">
-        <v>383</v>
-      </c>
-      <c r="H108" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8">
-      <c r="H109" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8">
-      <c r="E110" t="s">
-        <v>385</v>
-      </c>
-      <c r="G110" t="s">
-        <v>331</v>
-      </c>
-      <c r="H110" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8">
-      <c r="E111" t="s">
+      <c r="G117" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12">
+      <c r="G118" t="s">
         <v>386</v>
       </c>
-      <c r="G111" t="s">
-        <v>333</v>
-      </c>
-      <c r="H111" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8">
-      <c r="E112" t="s">
+      <c r="H118" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12">
+      <c r="E119" t="s">
         <v>373</v>
       </c>
-      <c r="G112" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="113" spans="4:12">
-      <c r="G113" t="s">
-        <v>387</v>
-      </c>
-      <c r="H113" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="4:12">
-      <c r="E114" t="s">
+    </row>
+    <row r="120" spans="3:12">
+      <c r="E120" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="115" spans="4:12">
-      <c r="E115" t="s">
+    <row r="121" spans="3:12">
+      <c r="E121" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="116" spans="4:12">
-      <c r="E116" t="s">
+      <c r="L121" t="s">
         <v>376</v>
       </c>
-      <c r="L116" t="s">
+    </row>
+    <row r="122" spans="3:12">
+      <c r="E122" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="4:12">
-      <c r="E117" t="s">
+    <row r="123" spans="3:12">
+      <c r="E123" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="118" spans="4:12">
-      <c r="E118" t="s">
+    <row r="124" spans="3:12">
+      <c r="E124" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="119" spans="4:12">
-      <c r="E119" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="120" spans="4:12">
-      <c r="E120" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="121" spans="4:12">
-      <c r="D121" t="s">
+    <row r="125" spans="3:12">
+      <c r="E125" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12">
+      <c r="D126" t="s">
         <v>70</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E126" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12">
+      <c r="E127" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="122" spans="4:12">
-      <c r="E122" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="123" spans="4:12">
-      <c r="D123" t="s">
+    <row r="128" spans="3:12">
+      <c r="D128" t="s">
         <v>71</v>
       </c>
-      <c r="E123" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12">
-      <c r="D124" t="s">
-        <v>72</v>
-      </c>
-      <c r="E124" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="125" spans="4:12">
-      <c r="D125" t="s">
-        <v>73</v>
-      </c>
-      <c r="E125" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="126" spans="4:12">
-      <c r="D126" t="s">
-        <v>74</v>
-      </c>
-      <c r="E126" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="127" spans="4:12">
-      <c r="D127" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="4:12">
-      <c r="D128" t="s">
-        <v>76</v>
+      <c r="E128" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="3:8">
       <c r="D129" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="E129" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="3:8">
       <c r="D130" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E130" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="3:8">
       <c r="D131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8">
+      <c r="D132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8">
+      <c r="D133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8">
+      <c r="D134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8">
+      <c r="D135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8">
+      <c r="D136" t="s">
         <v>79</v>
       </c>
-      <c r="E131" t="s">
-        <v>468</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="E136" t="s">
+        <v>467</v>
+      </c>
+      <c r="F136" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8">
+      <c r="F137" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="3:8">
-      <c r="F132" t="s">
+    <row r="138" spans="3:8">
+      <c r="F138" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="133" spans="3:8">
-      <c r="F133" t="s">
+    <row r="139" spans="3:8">
+      <c r="F139" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="3:8">
-      <c r="F134" t="s">
+    <row r="140" spans="3:8">
+      <c r="F140" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="135" spans="3:8">
-      <c r="F135" t="s">
+    <row r="141" spans="3:8">
+      <c r="F141" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="136" spans="3:8">
-      <c r="F136" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8">
-      <c r="C137" t="s">
+    <row r="142" spans="3:8">
+      <c r="C142" t="s">
+        <v>391</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" t="s">
+        <v>387</v>
+      </c>
+      <c r="G142" t="s">
         <v>392</v>
       </c>
-      <c r="D137" t="s">
-        <v>69</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="H142" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8">
+      <c r="E143" t="s">
         <v>388</v>
       </c>
-      <c r="G137" t="s">
+    </row>
+    <row r="144" spans="3:8">
+      <c r="E144" t="s">
+        <v>389</v>
+      </c>
+      <c r="G144" t="s">
         <v>393</v>
       </c>
-      <c r="H137" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8">
-      <c r="E138" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8">
-      <c r="E139" t="s">
+      <c r="H144" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="3:13">
+      <c r="E145" t="s">
         <v>390</v>
-      </c>
-      <c r="G139" t="s">
-        <v>394</v>
-      </c>
-      <c r="H139" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8">
-      <c r="E140" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8">
-      <c r="D141" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8">
-      <c r="D142" t="s">
-        <v>71</v>
-      </c>
-      <c r="E142" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8">
-      <c r="D143" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8">
-      <c r="D144" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="145" spans="3:13">
-      <c r="D145" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="146" spans="3:13">
       <c r="D146" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="3:13">
       <c r="D147" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="E147" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="3:13">
       <c r="D148" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="3:13">
       <c r="D149" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="150" spans="3:13">
       <c r="D150" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="151" spans="3:13">
-      <c r="C151" t="s">
-        <v>93</v>
-      </c>
       <c r="D151" t="s">
-        <v>69</v>
-      </c>
-      <c r="E151" t="s">
-        <v>403</v>
-      </c>
-      <c r="G151" t="s">
-        <v>407</v>
-      </c>
-      <c r="H151" t="s">
-        <v>408</v>
-      </c>
-      <c r="M151" t="s">
-        <v>404</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="3:13">
-      <c r="E152" t="s">
-        <v>401</v>
+      <c r="D152" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="3:13">
-      <c r="E153" t="s">
-        <v>402</v>
+      <c r="D153" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="3:13">
-      <c r="E154" t="s">
-        <v>405</v>
-      </c>
-      <c r="G154" t="s">
-        <v>406</v>
-      </c>
-      <c r="H154" t="s">
-        <v>408</v>
+      <c r="D154" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="155" spans="3:13">
       <c r="D155" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="3:13">
+      <c r="C156" t="s">
+        <v>93</v>
+      </c>
       <c r="D156" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E156" t="s">
-        <v>441</v>
+        <v>402</v>
+      </c>
+      <c r="G156" t="s">
+        <v>406</v>
+      </c>
+      <c r="H156" t="s">
+        <v>407</v>
+      </c>
+      <c r="M156" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="157" spans="3:13">
       <c r="E157" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="3:13">
       <c r="E158" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="159" spans="3:13">
-      <c r="D159" t="s">
-        <v>72</v>
-      </c>
       <c r="E159" t="s">
-        <v>431</v>
-      </c>
-      <c r="F159" t="s">
-        <v>430</v>
+        <v>404</v>
+      </c>
+      <c r="G159" t="s">
+        <v>405</v>
+      </c>
+      <c r="H159" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="160" spans="3:13">
-      <c r="F160" t="s">
-        <v>429</v>
+      <c r="D160" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="161" spans="2:6">
       <c r="D161" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="E161" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="2:6">
-      <c r="D162" t="s">
-        <v>74</v>
+      <c r="E162" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="2:6">
-      <c r="D163" t="s">
-        <v>75</v>
-      </c>
       <c r="E163" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="2:6">
       <c r="D164" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E164" t="s">
-        <v>446</v>
+        <v>430</v>
+      </c>
+      <c r="F164" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="2:6">
-      <c r="D165" t="s">
-        <v>77</v>
-      </c>
-      <c r="E165" t="s">
-        <v>449</v>
+      <c r="F165" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="166" spans="2:6">
       <c r="D166" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="2:6">
       <c r="D167" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="D168" t="s">
+        <v>75</v>
+      </c>
+      <c r="E168" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="D169" t="s">
+        <v>76</v>
+      </c>
+      <c r="E169" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="D170" t="s">
+        <v>77</v>
+      </c>
+      <c r="E170" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="D171" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="D172" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="168" spans="2:6">
-      <c r="B168" t="s">
+    <row r="173" spans="2:6">
+      <c r="B173" t="s">
         <v>114</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C173" t="s">
         <v>94</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D173" t="s">
         <v>69</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E173" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="E174" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6">
-      <c r="E169" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6">
-      <c r="E170" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6">
-      <c r="E171" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6">
-      <c r="E172" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6">
-      <c r="D173" t="s">
-        <v>70</v>
-      </c>
-      <c r="E173" t="s">
-        <v>419</v>
-      </c>
-      <c r="F173" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6">
-      <c r="F174" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="E175" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="2:6">
-      <c r="D176" t="s">
-        <v>71</v>
-      </c>
       <c r="E176" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="3:6">
-      <c r="D177" t="s">
-        <v>72</v>
+      <c r="E177" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="178" spans="3:6">
       <c r="D178" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E178" t="s">
-        <v>471</v>
+        <v>418</v>
+      </c>
+      <c r="F178" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="179" spans="3:6">
-      <c r="D179" t="s">
-        <v>74</v>
+      <c r="F179" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="180" spans="3:6">
-      <c r="D180" t="s">
-        <v>75</v>
-      </c>
       <c r="E180" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="181" spans="3:6">
       <c r="D181" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="E181" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="182" spans="3:6">
       <c r="D182" t="s">
-        <v>77</v>
-      </c>
-      <c r="E182" t="s">
-        <v>448</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183" spans="3:6">
       <c r="D183" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="E183" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="3:6">
       <c r="D184" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6">
+      <c r="D185" t="s">
+        <v>75</v>
+      </c>
+      <c r="E185" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6">
+      <c r="D186" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6">
+      <c r="D187" t="s">
+        <v>77</v>
+      </c>
+      <c r="E187" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6">
+      <c r="D188" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6">
+      <c r="D189" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="3:6">
-      <c r="C185" t="s">
+    <row r="190" spans="3:6">
+      <c r="C190" t="s">
         <v>95</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D190" t="s">
         <v>69</v>
       </c>
-      <c r="E185" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="186" spans="3:6">
-      <c r="E186" t="s">
+      <c r="E190" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="187" spans="3:6">
-      <c r="E187" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="188" spans="3:6">
-      <c r="E188" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="189" spans="3:6">
-      <c r="E189" t="s">
-        <v>415</v>
-      </c>
-      <c r="F189" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="3:6">
-      <c r="F190" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="191" spans="3:6">
-      <c r="F191" t="s">
-        <v>400</v>
+      <c r="E191" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="192" spans="3:6">
@@ -6024,679 +6042,707 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="D193" t="s">
-        <v>70</v>
-      </c>
+    <row r="193" spans="4:6">
       <c r="E193" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6">
       <c r="E194" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="D195" t="s">
-        <v>71</v>
-      </c>
-      <c r="E195" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="E196" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="D197" t="s">
-        <v>72</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="F194" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6">
+      <c r="F195" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" spans="4:6">
+      <c r="F196" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6">
       <c r="E197" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="4:6">
       <c r="D198" t="s">
+        <v>70</v>
+      </c>
+      <c r="E198" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6">
+      <c r="E199" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6">
+      <c r="D200" t="s">
+        <v>71</v>
+      </c>
+      <c r="E200" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6">
+      <c r="E201" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6">
+      <c r="D202" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6">
+      <c r="D203" t="s">
         <v>73</v>
       </c>
-      <c r="E198" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="D199" t="s">
+      <c r="E203" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6">
+      <c r="D204" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="D200" t="s">
+    <row r="205" spans="4:6">
+      <c r="D205" t="s">
         <v>75</v>
       </c>
-      <c r="E200" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="D201" t="s">
+      <c r="E205" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6">
+      <c r="D206" t="s">
         <v>76</v>
       </c>
-      <c r="E201" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="D202" t="s">
+      <c r="E206" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6">
+      <c r="D207" t="s">
         <v>77</v>
       </c>
-      <c r="E202" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="D203" t="s">
+      <c r="E207" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6">
+      <c r="D208" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="D204" t="s">
+    <row r="209" spans="1:7">
+      <c r="D209" t="s">
         <v>79</v>
       </c>
-      <c r="E204" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
+      <c r="E209" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
         <v>106</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B210" t="s">
         <v>96</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C210" t="s">
         <v>97</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D210" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="D206" t="s">
+    <row r="211" spans="1:7">
+      <c r="D211" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="D207" t="s">
+    <row r="212" spans="1:7">
+      <c r="D212" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="D208" t="s">
+    <row r="213" spans="1:7">
+      <c r="D213" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="3:7">
-      <c r="D209" t="s">
+    <row r="214" spans="1:7">
+      <c r="D214" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="210" spans="3:7">
-      <c r="C210" t="s">
-        <v>486</v>
-      </c>
-      <c r="D210" t="s">
+    <row r="215" spans="1:7">
+      <c r="C215" t="s">
+        <v>484</v>
+      </c>
+      <c r="D215" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="D216" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="D217" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="211" spans="3:7">
-      <c r="D211" t="s">
+    <row r="218" spans="1:7">
+      <c r="D218" t="s">
+        <v>547</v>
+      </c>
+      <c r="E218" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="212" spans="3:7">
-      <c r="D212" t="s">
+    <row r="219" spans="1:7">
+      <c r="E219" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="E220" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="3:7">
-      <c r="D213" t="s">
-        <v>549</v>
-      </c>
-      <c r="E213" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="214" spans="3:7">
-      <c r="E214" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="215" spans="3:7">
-      <c r="E215" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="216" spans="3:7">
-      <c r="D216" t="s">
-        <v>514</v>
-      </c>
-      <c r="G216" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="217" spans="3:7">
-      <c r="D217" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="218" spans="3:7">
-      <c r="D218" t="s">
+    <row r="221" spans="1:7">
+      <c r="D221" t="s">
+        <v>512</v>
+      </c>
+      <c r="G221" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="D222" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="D223" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="D224" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="219" spans="3:7">
-      <c r="D219" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="220" spans="3:7">
-      <c r="C220" t="s">
+    <row r="225" spans="3:7">
+      <c r="C225" t="s">
         <v>103</v>
       </c>
-      <c r="D220" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="221" spans="3:7">
-      <c r="D221" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="222" spans="3:7">
-      <c r="D222" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="223" spans="3:7">
-      <c r="D223" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="224" spans="3:7">
-      <c r="C224" t="s">
-        <v>104</v>
-      </c>
-      <c r="D224" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="225" spans="3:7">
       <c r="D225" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
     </row>
     <row r="226" spans="3:7">
       <c r="D226" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="227" spans="3:7">
       <c r="D227" t="s">
-        <v>550</v>
-      </c>
-      <c r="E227" t="s">
-        <v>516</v>
-      </c>
-      <c r="G227" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="3:7">
-      <c r="E228" t="s">
-        <v>517</v>
-      </c>
-      <c r="G228" t="s">
-        <v>511</v>
+      <c r="D228" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="3:7">
+      <c r="C229" t="s">
+        <v>104</v>
+      </c>
       <c r="D229" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="3:7">
       <c r="D230" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="3:7">
-      <c r="C231" t="s">
+      <c r="D231" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7">
+      <c r="D232" t="s">
+        <v>548</v>
+      </c>
+      <c r="E232" t="s">
+        <v>514</v>
+      </c>
+      <c r="G232" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7">
+      <c r="E233" t="s">
+        <v>515</v>
+      </c>
+      <c r="G233" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7">
+      <c r="D234" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7">
+      <c r="D235" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7">
+      <c r="C236" t="s">
         <v>105</v>
       </c>
-      <c r="D231" t="s">
-        <v>520</v>
-      </c>
-      <c r="E231" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="232" spans="3:7">
-      <c r="E232" t="s">
+      <c r="D236" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="233" spans="3:7">
-      <c r="D233" t="s">
-        <v>521</v>
-      </c>
-      <c r="E233" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="234" spans="3:7">
-      <c r="E234" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="235" spans="3:7">
-      <c r="E235" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="236" spans="3:7">
-      <c r="D236" t="s">
-        <v>534</v>
+      <c r="E236" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="3:7">
-      <c r="D237" t="s">
-        <v>525</v>
+      <c r="E237" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="3:7">
       <c r="D238" t="s">
-        <v>530</v>
+        <v>519</v>
+      </c>
+      <c r="E238" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="239" spans="3:7">
-      <c r="D239" t="s">
-        <v>526</v>
-      </c>
       <c r="E239" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="240" spans="3:7">
       <c r="E240" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="241" spans="3:5">
       <c r="D241" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="242" spans="3:5">
       <c r="D242" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="3:5">
       <c r="D243" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="244" spans="3:5">
-      <c r="C244" t="s">
-        <v>95</v>
-      </c>
       <c r="D244" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E244" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="3:5">
       <c r="E245" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="246" spans="3:5">
-      <c r="E246" t="s">
-        <v>540</v>
+      <c r="D246" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="247" spans="3:5">
-      <c r="E247" t="s">
-        <v>130</v>
+      <c r="D247" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="3:5">
       <c r="D248" t="s">
-        <v>541</v>
-      </c>
-      <c r="E248" t="s">
-        <v>66</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="3:5">
+      <c r="C249" t="s">
+        <v>95</v>
+      </c>
+      <c r="D249" t="s">
+        <v>535</v>
+      </c>
       <c r="E249" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250" spans="3:5">
       <c r="E250" t="s">
-        <v>400</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251" spans="3:5">
       <c r="E251" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="252" spans="3:5">
-      <c r="D252" t="s">
-        <v>544</v>
+      <c r="E252" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="253" spans="3:5">
       <c r="D253" t="s">
-        <v>545</v>
+        <v>539</v>
+      </c>
+      <c r="E253" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="254" spans="3:5">
-      <c r="D254" t="s">
-        <v>546</v>
+      <c r="E254" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="255" spans="3:5">
-      <c r="D255" t="s">
-        <v>547</v>
+      <c r="E255" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="256" spans="3:5">
-      <c r="D256" t="s">
-        <v>550</v>
-      </c>
       <c r="E256" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="E257" t="s">
-        <v>517</v>
+      <c r="D257" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="258" spans="1:14">
       <c r="D258" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" t="s">
-        <v>107</v>
-      </c>
-      <c r="C259" t="s">
-        <v>572</v>
-      </c>
       <c r="D259" t="s">
-        <v>108</v>
-      </c>
-      <c r="G259" t="s">
-        <v>110</v>
-      </c>
-      <c r="N259" t="s">
-        <v>112</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:14">
       <c r="D260" t="s">
-        <v>109</v>
-      </c>
-      <c r="G260" t="s">
-        <v>111</v>
+        <v>545</v>
       </c>
     </row>
     <row r="261" spans="1:14">
       <c r="D261" t="s">
-        <v>113</v>
+        <v>548</v>
+      </c>
+      <c r="E261" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="C262" t="s">
-        <v>486</v>
-      </c>
-      <c r="D262" t="s">
-        <v>497</v>
+      <c r="E262" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="263" spans="1:14">
       <c r="D263" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
     </row>
     <row r="264" spans="1:14">
+      <c r="A264" t="s">
+        <v>107</v>
+      </c>
+      <c r="C264" t="s">
+        <v>570</v>
+      </c>
       <c r="D264" t="s">
-        <v>488</v>
+        <v>108</v>
+      </c>
+      <c r="G264" t="s">
+        <v>110</v>
+      </c>
+      <c r="N264" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="265" spans="1:14">
       <c r="D265" t="s">
-        <v>489</v>
-      </c>
-      <c r="E265" t="s">
-        <v>493</v>
+        <v>109</v>
+      </c>
+      <c r="G265" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="E266" t="s">
+      <c r="D266" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="C267" t="s">
+        <v>484</v>
+      </c>
+      <c r="D267" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14">
-      <c r="E267" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="268" spans="1:14">
       <c r="D268" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="269" spans="1:14">
       <c r="D269" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:14">
       <c r="D270" t="s">
+        <v>487</v>
+      </c>
+      <c r="E270" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="E271" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="E272" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5">
+      <c r="D273" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5">
+      <c r="D274" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5">
+      <c r="D275" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="276" spans="3:5">
+      <c r="D276" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="277" spans="3:5">
+      <c r="D277" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
-      <c r="D271" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14">
-      <c r="D272" t="s">
+    <row r="278" spans="3:5">
+      <c r="D278" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
-      <c r="D273" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="C274" t="s">
+    <row r="279" spans="3:5">
+      <c r="C279" t="s">
         <v>103</v>
       </c>
-      <c r="D274" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="C275" t="s">
+      <c r="D279" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5">
+      <c r="C280" t="s">
         <v>104</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D280" t="s">
+        <v>550</v>
+      </c>
+      <c r="E280" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="281" spans="3:5">
+      <c r="E281" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="282" spans="3:5">
+      <c r="D282" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="283" spans="3:5">
+      <c r="D283" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="284" spans="3:5">
+      <c r="C284" t="s">
+        <v>105</v>
+      </c>
+      <c r="D284" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="285" spans="3:5">
+      <c r="D285" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="286" spans="3:5">
+      <c r="D286" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="287" spans="3:5">
+      <c r="C287" t="s">
+        <v>95</v>
+      </c>
+      <c r="D287" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="288" spans="3:5">
+      <c r="D288" t="s">
+        <v>550</v>
+      </c>
+      <c r="E288" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="E289" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
         <v>552</v>
       </c>
-      <c r="E275" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="E276" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="D277" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="D278" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="C279" t="s">
-        <v>105</v>
-      </c>
-      <c r="D279" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="D280" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="D281" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="C282" t="s">
+      <c r="C290" t="s">
+        <v>570</v>
+      </c>
+      <c r="D290" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="D291" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="D292" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="D293" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="D294" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="C295" t="s">
+        <v>484</v>
+      </c>
+      <c r="D295" t="s">
+        <v>559</v>
+      </c>
+      <c r="E295" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="E296" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="C297" t="s">
+        <v>103</v>
+      </c>
+      <c r="D297" t="s">
+        <v>560</v>
+      </c>
+      <c r="E297" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="E298" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="C299" t="s">
+        <v>104</v>
+      </c>
+      <c r="D299" t="s">
+        <v>557</v>
+      </c>
+      <c r="E299" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="E300" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="C301" t="s">
         <v>95</v>
       </c>
-      <c r="D282" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="D283" t="s">
-        <v>552</v>
-      </c>
-      <c r="E283" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="E284" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" t="s">
-        <v>554</v>
-      </c>
-      <c r="C285" t="s">
-        <v>572</v>
-      </c>
-      <c r="D285" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="D286" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="D287" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="D288" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="289" spans="3:5">
-      <c r="D289" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="290" spans="3:5">
-      <c r="C290" t="s">
-        <v>486</v>
-      </c>
-      <c r="D290" t="s">
-        <v>561</v>
-      </c>
-      <c r="E290" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="291" spans="3:5">
-      <c r="E291" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="292" spans="3:5">
-      <c r="C292" t="s">
-        <v>103</v>
-      </c>
-      <c r="D292" t="s">
+      <c r="D301" t="s">
         <v>562</v>
       </c>
-      <c r="E292" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="293" spans="3:5">
-      <c r="E293" t="s">
+      <c r="E301" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="294" spans="3:5">
-      <c r="C294" t="s">
-        <v>104</v>
-      </c>
-      <c r="D294" t="s">
-        <v>559</v>
-      </c>
-      <c r="E294" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="295" spans="3:5">
-      <c r="E295" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="296" spans="3:5">
-      <c r="C296" t="s">
-        <v>95</v>
-      </c>
-      <c r="D296" t="s">
+    <row r="302" spans="1:5">
+      <c r="E302" t="s">
         <v>564</v>
-      </c>
-      <c r="E296" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="297" spans="3:5">
-      <c r="E297" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -6718,19 +6764,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" style="7"/>
-    <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="7" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" style="7"/>
-    <col min="8" max="8" width="18.42578125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="12.7109375" style="7"/>
+    <col min="1" max="2" width="12.7109375" style="6"/>
+    <col min="3" max="3" width="24" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="6" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="6"/>
+    <col min="8" max="8" width="18.42578125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="12.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -6742,1095 +6788,1091 @@
       <c r="H2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20" customHeight="1">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20" customHeight="1">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20" customHeight="1">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20" customHeight="1">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20" customHeight="1">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="20" customHeight="1">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="20" customHeight="1">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="20" customHeight="1">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="20" customHeight="1">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="20" customHeight="1">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="20" customHeight="1">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20" customHeight="1">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="20" customHeight="1">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="20" customHeight="1">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="20" customHeight="1">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="20" customHeight="1">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="20" customHeight="1">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="20" customHeight="1">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="20" customHeight="1">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="20" customHeight="1">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="20" customHeight="1">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="20" customHeight="1">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="20" customHeight="1">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="20" customHeight="1">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="20" customHeight="1">
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="20" customHeight="1">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="20" customHeight="1">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="20" customHeight="1">
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="20" customHeight="1">
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="20" customHeight="1">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="20" customHeight="1">
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="20" customHeight="1">
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="20" customHeight="1">
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="20" customHeight="1">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="20" customHeight="1">
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="20" customHeight="1">
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="20" customHeight="1">
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="20" customHeight="1">
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="20" customHeight="1">
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="20" customHeight="1">
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="20" customHeight="1">
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="20" customHeight="1">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="20" customHeight="1">
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="20" customHeight="1">
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="20" customHeight="1">
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="20" customHeight="1">
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="20" customHeight="1">
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="20" customHeight="1">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="20" customHeight="1">
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="20" customHeight="1">
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="20" customHeight="1">
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="20" customHeight="1">
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="20" customHeight="1">
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="20" customHeight="1">
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="20" customHeight="1">
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="20" customHeight="1">
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="20" customHeight="1">
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="20" customHeight="1">
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="20" customHeight="1">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="20" customHeight="1">
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="20" customHeight="1">
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="20" customHeight="1">
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="20" customHeight="1">
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="20" customHeight="1">
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="20" customHeight="1">
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="20" customHeight="1">
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="20" customHeight="1">
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="20" customHeight="1">
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="20" customHeight="1">
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="20" customHeight="1">
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="20" customHeight="1">
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="20" customHeight="1">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="20" customHeight="1">
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="20" customHeight="1">
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="20" customHeight="1">
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="20" customHeight="1">
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="20" customHeight="1">
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="K93" s="7" t="s">
+      <c r="K93" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="20" customHeight="1">
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="K94" s="7" t="s">
+      <c r="K94" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" customHeight="1">
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="20" customHeight="1">
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="20" customHeight="1">
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="20" customHeight="1">
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="20" customHeight="1">
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="20" customHeight="1">
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="20" customHeight="1">
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="20" customHeight="1">
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="20" customHeight="1">
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="20" customHeight="1">
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="20" customHeight="1">
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="20" customHeight="1">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="20" customHeight="1">
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="20" customHeight="1">
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="20" customHeight="1">
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="20" customHeight="1">
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="K110" s="7" t="s">
+      <c r="K110" s="6" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="20" customHeight="1">
-      <c r="K111" s="7" t="s">
+      <c r="K111" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="20" customHeight="1">
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="20" customHeight="1">
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="20" customHeight="1">
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="20" customHeight="1">
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="20" customHeight="1">
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="20" customHeight="1">
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="20" customHeight="1">
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="20" customHeight="1">
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="20" customHeight="1">
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="20" customHeight="1">
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="20" customHeight="1">
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="20" customHeight="1">
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="20" customHeight="1">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="20" customHeight="1">
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="20" customHeight="1">
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="20" customHeight="1">
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>304</v>
       </c>
     </row>
